--- a/screens_layout/ScreensLayout.xlsx
+++ b/screens_layout/ScreensLayout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nisim\AndroidStudio\BrickSmash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A102A-267D-46CC-9ED2-CC3BF0D2D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15360" windowHeight="7710"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level001" sheetId="1" r:id="rId1"/>
@@ -22,14 +23,15 @@
     <sheet name="Level008" sheetId="13" r:id="rId8"/>
     <sheet name="Level009" sheetId="14" r:id="rId9"/>
     <sheet name="Level010" sheetId="15" r:id="rId10"/>
-    <sheet name="Level Template" sheetId="5" r:id="rId11"/>
+    <sheet name="Level011" sheetId="17" r:id="rId11"/>
+    <sheet name="Level Template" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="102">
   <si>
     <t>Packs:</t>
   </si>
@@ -288,11 +290,59 @@
   <si>
     <t>c5sp9e</t>
   </si>
+  <si>
+    <t>c5sp7e</t>
+  </si>
+  <si>
+    <t>c9sp5e</t>
+  </si>
+  <si>
+    <t>c0sp5e</t>
+  </si>
+  <si>
+    <t>c8s-1p6e</t>
+  </si>
+  <si>
+    <t>c8s-1p10e</t>
+  </si>
+  <si>
+    <t>c9sp10e</t>
+  </si>
+  <si>
+    <t>c5sp12e</t>
+  </si>
+  <si>
+    <t>c9sp14e</t>
+  </si>
+  <si>
+    <t>c8s-1p14e</t>
+  </si>
+  <si>
+    <t>c9sp2e</t>
+  </si>
+  <si>
+    <t>c0s3p2e</t>
+  </si>
+  <si>
+    <t>c0sp15e</t>
+  </si>
+  <si>
+    <t>c9sp16e</t>
+  </si>
+  <si>
+    <t>c9sp18e</t>
+  </si>
+  <si>
+    <t>c9sp15e</t>
+  </si>
+  <si>
+    <t>c9sp4e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="Picture 129"/>
+        <xdr:cNvPr id="130" name="Picture 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -768,7 +824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="Picture 130"/>
+        <xdr:cNvPr id="131" name="Picture 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -812,7 +874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="Picture 131"/>
+        <xdr:cNvPr id="132" name="Picture 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -856,7 +924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132"/>
+        <xdr:cNvPr id="133" name="Picture 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -900,7 +974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="Picture 133"/>
+        <xdr:cNvPr id="134" name="Picture 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -944,7 +1024,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="Picture 134"/>
+        <xdr:cNvPr id="135" name="Picture 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -988,7 +1074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Picture 135"/>
+        <xdr:cNvPr id="136" name="Picture 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1032,7 +1124,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="Picture 136"/>
+        <xdr:cNvPr id="137" name="Picture 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1076,7 +1174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Picture 137"/>
+        <xdr:cNvPr id="138" name="Picture 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1120,7 +1224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="Picture 138"/>
+        <xdr:cNvPr id="139" name="Picture 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1164,7 +1274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97"/>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1208,7 +1324,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98"/>
+        <xdr:cNvPr id="99" name="Picture 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1252,7 +1374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99"/>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1296,7 +1424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100"/>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1340,7 +1474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101"/>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1384,7 +1524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102"/>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1428,7 +1574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103"/>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1472,7 +1624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104"/>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1516,7 +1674,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105"/>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1560,7 +1724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106"/>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1604,7 +1774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107"/>
+        <xdr:cNvPr id="108" name="Picture 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1648,7 +1824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108"/>
+        <xdr:cNvPr id="109" name="Picture 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1692,7 +1874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109"/>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1736,7 +1924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110"/>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1780,7 +1974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111"/>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1824,7 +2024,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112"/>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1868,7 +2074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113"/>
+        <xdr:cNvPr id="114" name="Picture 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1912,7 +2124,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114"/>
+        <xdr:cNvPr id="115" name="Picture 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1956,7 +2174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115"/>
+        <xdr:cNvPr id="116" name="Picture 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2000,7 +2224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Picture 116"/>
+        <xdr:cNvPr id="117" name="Picture 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2044,7 +2274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 62"/>
+        <xdr:cNvPr id="33" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2093,7 +2329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2137,7 +2379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2181,7 +2429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2225,7 +2479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2269,7 +2529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2313,7 +2579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2357,7 +2629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2401,7 +2679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2445,7 +2729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2489,7 +2779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2533,7 +2829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2577,7 +2879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2621,7 +2929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2665,7 +2979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2709,7 +3029,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2753,7 +3079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2797,7 +3129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2841,7 +3179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2885,7 +3229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2929,7 +3279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2973,7 +3329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3017,7 +3379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3061,7 +3429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3105,7 +3479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3149,7 +3529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3193,7 +3579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3237,7 +3629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3281,7 +3679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3325,7 +3729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3369,7 +3779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3413,7 +3829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3462,7 +3884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFCFD9E-E0A0-4084-B6AA-1482AB9858B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3481,8 +3909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="251460"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="251460"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3506,7 +3934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733693C8-0616-469B-9CEA-6D317B38574D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3525,8 +3959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="2263140"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="2263140"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3550,7 +3984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EAEB79-0FC0-42B0-A43E-FB77B36B6186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3569,8 +4009,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="0"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="0"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3594,7 +4034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AB3C8E-55DE-411D-A684-F410940C459E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3613,8 +4059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="502920"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="502920"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3638,7 +4084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33A287-A593-4001-A071-550DDC9C9894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3657,8 +4109,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="754380"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="754380"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3682,7 +4134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F222D99F-F33F-4078-A2E9-C09915A6125B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3701,8 +4159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="1005840"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="1005840"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3726,7 +4184,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E53A97-E2BA-44A2-B4CE-8ED583AB0A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3745,8 +4209,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="1257300"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="1257300"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,7 +4234,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E145F229-54A9-4575-A1B9-72E2E4261E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3789,8 +4259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="1508760"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="1508760"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,7 +4284,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690C7ECE-9614-4F29-BF20-60730D2C2143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3833,8 +4309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="1760220"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="1760220"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,7 +4334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82245D9-03F4-41BE-9187-FED46EF3CFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3877,8 +4359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="2011680"/>
-          <a:ext cx="571630" cy="254058"/>
+          <a:off x="10881360" y="2011680"/>
+          <a:ext cx="640210" cy="254058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3902,7 +4384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206CE719-49E3-4315-BDF7-E15E4365483C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3921,7 +4409,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="7620"/>
+          <a:off x="8610600" y="7620"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3946,7 +4434,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69C8DDC-B5D1-4B83-80D8-34492205E16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3965,7 +4459,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="251460"/>
+          <a:off x="8610600" y="251460"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3990,7 +4484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1471DECB-5125-45BC-9B14-B3E409D6B632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4009,7 +4509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="502920"/>
+          <a:off x="8610600" y="502920"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4034,7 +4534,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB2D8B4-1A3C-49DF-9D93-32715F042F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4053,7 +4559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="754380"/>
+          <a:off x="8610600" y="754380"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4078,7 +4584,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC98E8C-A1ED-406E-91C1-822E025EC03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4097,7 +4609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="1005840"/>
+          <a:off x="8610600" y="1005840"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4122,7 +4634,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4E603A-0361-4FA2-8456-9C0B433B018A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4141,7 +4659,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="1257300"/>
+          <a:off x="8610600" y="1257300"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4166,7 +4684,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B123F56D-9F76-4475-B232-FC519F817151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4185,7 +4709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="1508760"/>
+          <a:off x="8610600" y="1508760"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4210,7 +4734,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76E4D11-C835-46C4-9533-87AEBDFC0F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4229,7 +4759,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="1760220"/>
+          <a:off x="8610600" y="1760220"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4254,7 +4784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0938E11-53CE-41FA-8630-E3C0155D91AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4273,7 +4809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="2011680"/>
+          <a:off x="8610600" y="2011680"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4298,7 +4834,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B8175D-A7C7-4007-A0BA-91F5066DF7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4317,7 +4859,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="2263140"/>
+          <a:off x="8610600" y="2263140"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4342,7 +4884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FBF153-5FBD-4F38-AE9F-11CCEB0E8A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4361,7 +4909,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="2514600"/>
+          <a:off x="8610600" y="2514600"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4386,7 +4934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FF758B-46CE-4269-9AAC-561946C2E9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4405,7 +4959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="2766060"/>
+          <a:off x="8610600" y="2766060"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4430,7 +4984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EEA5D5-17F7-4D27-B903-B51BBB687B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4449,7 +5009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="3017520"/>
+          <a:off x="8610600" y="3017520"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4474,7 +5034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF33C0F-0EC7-4364-BBC7-925AE73E8AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4493,7 +5059,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="3268980"/>
+          <a:off x="8610600" y="3268980"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4518,7 +5084,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DAECF3-B120-44BE-B37D-61CE73DD888D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4537,7 +5109,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="3520440"/>
+          <a:off x="8610600" y="3520440"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4562,7 +5134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500011BD-8242-4F57-BCFF-E221A1C0D98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4581,7 +5159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="3771900"/>
+          <a:off x="8610600" y="3771900"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4606,7 +5184,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD42E239-D8E8-4411-AB7B-8BC9FC956119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4625,7 +5209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="4023360"/>
+          <a:off x="8610600" y="4023360"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4650,7 +5234,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7727596B-8728-4F50-939C-8A3564925172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4669,7 +5259,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="4274820"/>
+          <a:off x="8610600" y="4274820"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4694,7 +5284,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F24B7A-EFB9-46C8-867A-E7AFE02979C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4713,7 +5309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="4526280"/>
+          <a:off x="8610600" y="4526280"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4738,7 +5334,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F08C221-6581-4301-B8F4-E4EC6A536054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4757,7 +5359,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719060" y="4777740"/>
+          <a:off x="8610600" y="4777740"/>
           <a:ext cx="244380" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4782,7 +5384,1568 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B29CCD-1125-4684-AB0C-E73D00C30F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="2514600"/>
+          <a:ext cx="640080" cy="253968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="251460"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="2263140"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="0"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="502920"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="754380"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="1005840"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="1257300"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="1508760"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="1760220"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="2011680"/>
+          <a:ext cx="571630" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="7620"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="251460"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="502920"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="754380"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1005840"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1257300"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1508760"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1760220"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="2011680"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="2263140"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="2514600"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="2766060"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="3017520"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="3268980"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="3520440"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="3771900"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="4023360"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="4274820"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="4526280"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="4777740"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4831,7 +6994,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="Picture 180"/>
+        <xdr:cNvPr id="181" name="Picture 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4875,7 +7044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="Picture 181"/>
+        <xdr:cNvPr id="182" name="Picture 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4919,7 +7094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="Picture 182"/>
+        <xdr:cNvPr id="183" name="Picture 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4963,7 +7144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="Picture 183"/>
+        <xdr:cNvPr id="184" name="Picture 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5007,7 +7194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="185" name="Picture 184"/>
+        <xdr:cNvPr id="185" name="Picture 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5051,7 +7244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="Picture 185"/>
+        <xdr:cNvPr id="186" name="Picture 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5095,7 +7294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="187" name="Picture 186"/>
+        <xdr:cNvPr id="187" name="Picture 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5139,7 +7344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="188" name="Picture 187"/>
+        <xdr:cNvPr id="188" name="Picture 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5183,7 +7394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="Picture 188"/>
+        <xdr:cNvPr id="189" name="Picture 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5227,7 +7444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="Picture 189"/>
+        <xdr:cNvPr id="190" name="Picture 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5271,7 +7494,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106"/>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5315,7 +7544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107"/>
+        <xdr:cNvPr id="108" name="Picture 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5359,7 +7594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108"/>
+        <xdr:cNvPr id="109" name="Picture 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5403,7 +7644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109"/>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5447,7 +7694,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110"/>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5491,7 +7744,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111"/>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5535,7 +7794,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112"/>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5579,7 +7844,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113"/>
+        <xdr:cNvPr id="114" name="Picture 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5623,7 +7894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114"/>
+        <xdr:cNvPr id="115" name="Picture 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5667,7 +7944,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115"/>
+        <xdr:cNvPr id="116" name="Picture 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5711,7 +7994,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Picture 116"/>
+        <xdr:cNvPr id="117" name="Picture 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5755,7 +8044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Picture 117"/>
+        <xdr:cNvPr id="118" name="Picture 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5799,7 +8094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Picture 118"/>
+        <xdr:cNvPr id="119" name="Picture 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5843,7 +8144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="Picture 119"/>
+        <xdr:cNvPr id="120" name="Picture 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5887,7 +8194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="Picture 120"/>
+        <xdr:cNvPr id="121" name="Picture 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5931,7 +8244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="Picture 121"/>
+        <xdr:cNvPr id="122" name="Picture 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5975,7 +8294,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="Picture 122"/>
+        <xdr:cNvPr id="123" name="Picture 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6019,7 +8344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Picture 123"/>
+        <xdr:cNvPr id="124" name="Picture 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6063,7 +8394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="Picture 124"/>
+        <xdr:cNvPr id="125" name="Picture 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6107,7 +8444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Picture 125"/>
+        <xdr:cNvPr id="126" name="Picture 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6151,7 +8494,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 62"/>
+        <xdr:cNvPr id="33" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6200,7 +8549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6244,7 +8599,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6288,7 +8649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6332,7 +8699,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6376,7 +8749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6420,7 +8799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6464,7 +8849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6508,7 +8899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6552,7 +8949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6596,7 +8999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6640,7 +9049,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Picture 152"/>
+        <xdr:cNvPr id="153" name="Picture 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6684,7 +9099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Picture 153"/>
+        <xdr:cNvPr id="154" name="Picture 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6728,7 +9149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Picture 154"/>
+        <xdr:cNvPr id="155" name="Picture 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6772,7 +9199,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="Picture 155"/>
+        <xdr:cNvPr id="156" name="Picture 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6816,7 +9249,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Picture 156"/>
+        <xdr:cNvPr id="157" name="Picture 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6860,7 +9299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="158" name="Picture 157"/>
+        <xdr:cNvPr id="158" name="Picture 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6904,7 +9349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="159" name="Picture 158"/>
+        <xdr:cNvPr id="159" name="Picture 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6948,7 +9399,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="Picture 159"/>
+        <xdr:cNvPr id="160" name="Picture 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6992,7 +9449,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="Picture 160"/>
+        <xdr:cNvPr id="161" name="Picture 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7036,7 +9499,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="Picture 161"/>
+        <xdr:cNvPr id="162" name="Picture 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7080,7 +9549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="Picture 162"/>
+        <xdr:cNvPr id="163" name="Picture 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7124,7 +9599,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="Picture 163"/>
+        <xdr:cNvPr id="164" name="Picture 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7168,7 +9649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="Picture 164"/>
+        <xdr:cNvPr id="165" name="Picture 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7212,7 +9699,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="Picture 165"/>
+        <xdr:cNvPr id="166" name="Picture 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7256,7 +9749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Picture 166"/>
+        <xdr:cNvPr id="167" name="Picture 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7300,7 +9799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="Picture 167"/>
+        <xdr:cNvPr id="168" name="Picture 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7344,7 +9849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="Picture 168"/>
+        <xdr:cNvPr id="169" name="Picture 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7388,7 +9899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="Picture 169"/>
+        <xdr:cNvPr id="170" name="Picture 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7432,7 +9949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="Picture 170"/>
+        <xdr:cNvPr id="171" name="Picture 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7476,7 +9999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="172" name="Picture 171"/>
+        <xdr:cNvPr id="172" name="Picture 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7520,7 +10049,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 62"/>
+        <xdr:cNvPr id="34" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7569,7 +10104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7613,7 +10154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7657,7 +10204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7701,7 +10254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7745,7 +10304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7789,7 +10354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7833,7 +10404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7877,7 +10454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7921,7 +10504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7965,7 +10554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8009,7 +10604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8053,7 +10654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8097,7 +10704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8141,7 +10754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8185,7 +10804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8229,7 +10854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8273,7 +10904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8317,7 +10954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8361,7 +11004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8405,7 +11054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8449,7 +11104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8493,7 +11154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8537,7 +11204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8581,7 +11254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8625,7 +11304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8669,7 +11354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8713,7 +11404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8757,7 +11454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8801,7 +11504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8845,7 +11554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8889,7 +11604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 62"/>
+        <xdr:cNvPr id="33" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8938,7 +11659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8982,7 +11709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9026,7 +11759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9070,7 +11809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9114,7 +11859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9158,7 +11909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9202,7 +11959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9246,7 +12009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9290,7 +12059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9334,7 +12109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9378,7 +12159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9422,7 +12209,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9466,7 +12259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9510,7 +12309,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9554,7 +12359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9598,7 +12409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9642,7 +12459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9686,7 +12509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9730,7 +12559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9774,7 +12609,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9818,7 +12659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9862,7 +12709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9906,7 +12759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9950,7 +12809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9994,7 +12859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10038,7 +12909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10082,7 +12959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10126,7 +13009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10170,7 +13059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10214,7 +13109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10258,7 +13159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10307,7 +13214,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10351,7 +13264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10395,7 +13314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10439,7 +13364,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10483,7 +13414,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10527,7 +13464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10571,7 +13514,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10615,7 +13564,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10659,7 +13614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10703,7 +13664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10747,7 +13714,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10791,7 +13764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10835,7 +13814,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10879,7 +13864,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10923,7 +13914,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10967,7 +13964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11011,7 +14014,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11055,7 +14064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11099,7 +14114,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11143,7 +14164,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11187,7 +14214,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11231,7 +14264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11275,7 +14314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11319,7 +14364,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11363,7 +14414,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11407,7 +14464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11451,7 +14514,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11495,7 +14564,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11539,7 +14614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11583,7 +14664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11627,7 +14714,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11676,7 +14769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11720,7 +14819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11764,7 +14869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11808,7 +14919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11852,7 +14969,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11896,7 +15019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11940,7 +15069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11984,7 +15119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12028,7 +15169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12072,7 +15219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12116,7 +15269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12160,7 +15319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12204,7 +15369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12248,7 +15419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12292,7 +15469,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12336,7 +15519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12380,7 +15569,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12424,7 +15619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12468,7 +15669,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12512,7 +15719,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12556,7 +15769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12600,7 +15819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12644,7 +15869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12688,7 +15919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12732,7 +15969,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12776,7 +16019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12820,7 +16069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12864,7 +16119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12908,7 +16169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12952,7 +16219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12996,7 +16269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13045,7 +16324,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13089,7 +16374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13133,7 +16424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13177,7 +16474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13221,7 +16524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13265,7 +16574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13309,7 +16624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13353,7 +16674,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13397,7 +16724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13441,7 +16774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13485,7 +16824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13529,7 +16874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13573,7 +16924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13617,7 +16974,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13661,7 +17024,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13705,7 +17074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13749,7 +17124,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13793,7 +17174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13837,7 +17224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13881,7 +17274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13925,7 +17324,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -13969,7 +17374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14013,7 +17424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14057,7 +17474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14101,7 +17524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14145,7 +17574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14189,7 +17624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14233,7 +17674,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14277,7 +17724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14321,7 +17774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14365,7 +17824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14414,7 +17879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14458,7 +17929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 22"/>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14502,7 +17979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 23"/>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14546,7 +18029,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 24"/>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14590,7 +18079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 25"/>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14634,7 +18129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 26"/>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14678,7 +18179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 27"/>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14722,7 +18229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 28"/>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14766,7 +18279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 29"/>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14810,7 +18329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 30"/>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14854,7 +18379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 32"/>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14898,7 +18429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 33"/>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14942,7 +18479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 34"/>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14986,7 +18529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 35"/>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15030,7 +18579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 36"/>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15074,7 +18629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 37"/>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15118,7 +18679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 38"/>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15162,7 +18729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 39"/>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15206,7 +18779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 40"/>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15250,7 +18829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 41"/>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15294,7 +18879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 42"/>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15338,7 +18929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 43"/>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15382,7 +18979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 44"/>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15426,7 +19029,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 45"/>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15470,7 +19079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 46"/>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15514,7 +19129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 47"/>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15558,7 +19179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 48"/>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15602,7 +19229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 49"/>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15646,7 +19279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 50"/>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15690,7 +19329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 51"/>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15734,7 +19379,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 62"/>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15767,9 +19418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15807,9 +19458,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15844,7 +19495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15879,7 +19530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16052,16 +19703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -16102,7 +19753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -16133,7 +19784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -16168,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -16207,7 +19858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -16248,7 +19899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -16289,7 +19940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -16328,7 +19979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
@@ -16363,7 +20014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -16394,7 +20045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
@@ -16427,7 +20078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -16450,7 +20101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -16467,7 +20118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -16484,7 +20135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -16501,7 +20152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -16518,7 +20169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -16535,7 +20186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -16552,7 +20203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -16569,7 +20220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -16586,7 +20237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -16603,7 +20254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -16640,16 +20291,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -16694,7 +20345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -16723,7 +20374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -16752,7 +20403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
@@ -16787,7 +20438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -16810,7 +20461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -16833,7 +20484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -16856,7 +20507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -16879,7 +20530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -16906,7 +20557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>2</v>
@@ -16941,7 +20592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="19" t="s">
         <v>2</v>
@@ -16976,7 +20627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
@@ -17007,7 +20658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
@@ -17038,7 +20689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="19" t="s">
         <v>2</v>
@@ -17069,7 +20720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="19" t="s">
@@ -17096,7 +20747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
@@ -17123,7 +20774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -17146,7 +20797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -17169,7 +20820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -17188,7 +20839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
@@ -17205,7 +20856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17241,16 +20892,707 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4DA7CD-1F2D-416F-BDB7-3A31C7C9CFD8}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11">
+        <v>0</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="M8" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="M10" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="M13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="M14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="M15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="M16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="M17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="M18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="M20" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17281,7 +21623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -17304,7 +21646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -17327,7 +21669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -17350,7 +21692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -17373,7 +21715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -17396,7 +21738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -17419,7 +21761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -17442,7 +21784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -17465,7 +21807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -17488,7 +21830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -17511,7 +21853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -17528,7 +21870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -17545,7 +21887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -17562,7 +21904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -17579,7 +21921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -17596,7 +21938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -17613,7 +21955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -17630,7 +21972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -17647,7 +21989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -17664,7 +22006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -17700,16 +22042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17746,7 +22088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="20" t="s">
@@ -17777,7 +22119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -17808,7 +22150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -17841,7 +22183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -17872,7 +22214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="20" t="s">
@@ -17903,7 +22245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -17936,7 +22278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -17973,7 +22315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -18004,7 +22346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>7</v>
@@ -18041,7 +22383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -18064,7 +22406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -18081,7 +22423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -18098,7 +22440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18115,7 +22457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -18132,7 +22474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18149,7 +22491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -18166,7 +22508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -18183,7 +22525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -18200,7 +22542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -18217,7 +22559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -18253,16 +22595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18293,7 +22635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="18" t="s">
@@ -18320,7 +22662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="18" t="s">
         <v>5</v>
@@ -18351,7 +22693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -18386,7 +22728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -18421,7 +22763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="18" t="s">
         <v>30</v>
@@ -18452,7 +22794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="18" t="s">
@@ -18479,7 +22821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -18502,7 +22844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -18525,7 +22867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -18548,7 +22890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -18571,7 +22913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -18590,7 +22932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -18611,7 +22953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -18634,7 +22976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
@@ -18659,7 +23001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
@@ -18686,7 +23028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
@@ -18715,7 +23057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
@@ -18746,7 +23088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -18779,7 +23121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -18796,7 +23138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -18832,16 +23174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="20" t="s">
@@ -18880,7 +23222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -18915,7 +23257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -18952,7 +23294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>42</v>
@@ -18989,7 +23331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="24" t="s">
@@ -19022,7 +23364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="24" t="s">
@@ -19055,7 +23397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="20" t="s">
         <v>15</v>
@@ -19092,7 +23434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>15</v>
@@ -19129,7 +23471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -19168,7 +23510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -19203,7 +23545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -19232,7 +23574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15" t="s">
         <v>39</v>
@@ -19253,7 +23595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -19278,7 +23620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -19301,7 +23643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -19324,7 +23666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -19345,7 +23687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -19368,7 +23710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -19391,7 +23733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -19408,7 +23750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19425,7 +23767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -19462,16 +23804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -19514,7 +23856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -19549,7 +23891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -19586,7 +23928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
@@ -19625,7 +23967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -19666,7 +24008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -19707,7 +24049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -19748,7 +24090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="14" t="s">
         <v>26</v>
@@ -19785,7 +24127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
         <v>48</v>
@@ -19822,7 +24164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
@@ -19859,7 +24201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -19892,7 +24234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -19919,7 +24261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -19942,7 +24284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="17" t="s">
         <v>18</v>
@@ -19969,7 +24311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="17" t="s">
         <v>18</v>
@@ -19992,7 +24334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
@@ -20021,7 +24363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20038,7 +24380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20055,7 +24397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20072,7 +24414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -20089,7 +24431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20125,16 +24467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="19" t="s">
@@ -20175,7 +24517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="19" t="s">
         <v>2</v>
@@ -20212,7 +24554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -20253,7 +24595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
@@ -20294,7 +24636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -20335,7 +24677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
@@ -20376,7 +24718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
@@ -20417,7 +24759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -20458,7 +24800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -20499,7 +24841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -20540,7 +24882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
@@ -20581,7 +24923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
@@ -20616,7 +24958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -20651,7 +24993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
@@ -20678,7 +25020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -20695,7 +25037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -20712,7 +25054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20729,7 +25071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20746,7 +25088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20763,7 +25105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -20780,7 +25122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20816,16 +25158,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -20866,7 +25208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -20907,7 +25249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
@@ -20948,7 +25290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -20989,7 +25331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -21030,7 +25372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -21071,7 +25413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
@@ -21102,7 +25444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -21125,7 +25467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -21148,7 +25490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21171,7 +25513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="24" t="s">
         <v>19</v>
@@ -21202,7 +25544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
         <v>63</v>
@@ -21227,7 +25569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -21252,7 +25594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>15</v>
@@ -21277,7 +25619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>65</v>
       </c>
@@ -21304,7 +25646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
@@ -21331,7 +25673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>45</v>
       </c>
@@ -21358,7 +25700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>19</v>
       </c>
@@ -21385,7 +25727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21402,7 +25744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21419,7 +25761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -21455,16 +25797,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="16" t="s">
@@ -21505,7 +25847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="16" t="s">
@@ -21538,7 +25880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="16" t="s">
@@ -21569,7 +25911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -21600,7 +25942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -21633,7 +25975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -21656,7 +25998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -21679,7 +26021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -21702,7 +26044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -21727,7 +26069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21756,7 +26098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20" t="s">
@@ -21789,7 +26131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -21812,7 +26154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -21835,7 +26177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -21858,7 +26200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -21881,7 +26223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -21904,7 +26246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -21921,7 +26263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -21938,7 +26280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21955,7 +26297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21972,7 +26314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22009,16 +26351,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22055,7 +26397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
@@ -22088,7 +26430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
@@ -22121,7 +26463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
@@ -22154,7 +26496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
@@ -22187,7 +26529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -22216,7 +26558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -22241,7 +26583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -22268,7 +26610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -22297,7 +26639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -22326,7 +26668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -22353,7 +26695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -22376,7 +26718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -22401,7 +26743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -22422,7 +26764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="15" t="s">
@@ -22441,7 +26783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15" t="s">
@@ -22460,7 +26802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -22479,7 +26821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
@@ -22498,7 +26840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -22517,7 +26859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -22536,7 +26878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>

--- a/screens_layout/ScreensLayout.xlsx
+++ b/screens_layout/ScreensLayout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\Python\ScreensLayoutConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A102A-267D-46CC-9ED2-CC3BF0D2D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD2FF1F-C172-40E6-86A7-C967D2901AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level001" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="100">
   <si>
     <t>Packs:</t>
   </si>
@@ -300,12 +300,6 @@
     <t>c0sp5e</t>
   </si>
   <si>
-    <t>c8s-1p6e</t>
-  </si>
-  <si>
-    <t>c8s-1p10e</t>
-  </si>
-  <si>
     <t>c9sp10e</t>
   </si>
   <si>
@@ -347,7 +341,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +349,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,7 +357,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -372,42 +366,42 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -19710,9 +19704,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -19753,7 +19747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -19784,7 +19778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -19819,7 +19813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -19858,7 +19852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -19899,7 +19893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -19940,7 +19934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -19979,7 +19973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
@@ -20014,7 +20008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -20045,7 +20039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
@@ -20078,7 +20072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -20101,7 +20095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -20118,7 +20112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -20135,7 +20129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -20152,7 +20146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -20169,7 +20163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -20186,7 +20180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20203,7 +20197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20220,7 +20214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20237,7 +20231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -20254,7 +20248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20298,9 +20292,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -20345,7 +20339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -20374,7 +20368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -20403,7 +20397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
@@ -20438,7 +20432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -20461,7 +20455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -20484,7 +20478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -20507,7 +20501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -20530,7 +20524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -20557,7 +20551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>2</v>
@@ -20592,7 +20586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="19" t="s">
         <v>2</v>
@@ -20627,7 +20621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
@@ -20658,7 +20652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
@@ -20689,7 +20683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="19" t="s">
         <v>2</v>
@@ -20720,7 +20714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="19" t="s">
@@ -20747,7 +20741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
@@ -20774,7 +20768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20797,7 +20791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20820,7 +20814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20839,7 +20833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
@@ -20856,7 +20850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20896,12 +20890,12 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="23" t="s">
@@ -20936,7 +20930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -20975,7 +20969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -20989,7 +20983,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>2</v>
@@ -20998,7 +20992,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>11</v>
@@ -21016,12 +21010,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>56</v>
@@ -21039,7 +21033,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>2</v>
@@ -21057,24 +21051,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>19</v>
@@ -21098,7 +21092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
@@ -21139,7 +21133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
@@ -21150,13 +21144,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
@@ -21180,7 +21174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
@@ -21188,7 +21182,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>22</v>
@@ -21203,7 +21197,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>2</v>
@@ -21221,7 +21215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>87</v>
       </c>
@@ -21262,7 +21256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
@@ -21303,7 +21297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
@@ -21311,10 +21305,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>88</v>
@@ -21344,7 +21338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -21358,7 +21352,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>2</v>
@@ -21379,7 +21373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -21410,7 +21404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="23" t="s">
@@ -21437,7 +21431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -21460,7 +21454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -21479,7 +21473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -21496,7 +21490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -21513,7 +21507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21530,7 +21524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21547,7 +21541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -21590,9 +21584,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21623,7 +21617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -21646,7 +21640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -21669,7 +21663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -21692,7 +21686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -21715,7 +21709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -21738,7 +21732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -21761,7 +21755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -21784,7 +21778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -21807,7 +21801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21830,7 +21824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -21853,7 +21847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -21870,7 +21864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -21887,7 +21881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -21904,7 +21898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -21921,7 +21915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -21938,7 +21932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -21955,7 +21949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -21972,7 +21966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21989,7 +21983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22006,7 +22000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22049,9 +22043,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22088,7 +22082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="20" t="s">
@@ -22119,7 +22113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -22150,7 +22144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -22183,7 +22177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -22214,7 +22208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="20" t="s">
@@ -22245,7 +22239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -22278,7 +22272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -22315,7 +22309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -22346,7 +22340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>7</v>
@@ -22383,7 +22377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -22406,7 +22400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -22423,7 +22417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -22440,7 +22434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -22457,7 +22451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -22474,7 +22468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -22491,7 +22485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -22508,7 +22502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -22525,7 +22519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -22542,7 +22536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22559,7 +22553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22602,9 +22596,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22635,7 +22629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="18" t="s">
@@ -22662,7 +22656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="18" t="s">
         <v>5</v>
@@ -22693,7 +22687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -22728,7 +22722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -22763,7 +22757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="18" t="s">
         <v>30</v>
@@ -22794,7 +22788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="18" t="s">
@@ -22821,7 +22815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -22844,7 +22838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -22867,7 +22861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -22890,7 +22884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -22913,7 +22907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -22932,7 +22926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -22953,7 +22947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -22976,7 +22970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
@@ -23001,7 +22995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
@@ -23028,7 +23022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
@@ -23057,7 +23051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
@@ -23088,7 +23082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -23121,7 +23115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23138,7 +23132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23181,9 +23175,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="20" t="s">
@@ -23222,7 +23216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -23257,7 +23251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -23294,7 +23288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>42</v>
@@ -23331,7 +23325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="24" t="s">
@@ -23364,7 +23358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="24" t="s">
@@ -23397,7 +23391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="20" t="s">
         <v>15</v>
@@ -23434,7 +23428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>15</v>
@@ -23471,7 +23465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -23510,7 +23504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -23545,7 +23539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -23574,7 +23568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15" t="s">
         <v>39</v>
@@ -23595,7 +23589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -23620,7 +23614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -23643,7 +23637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -23666,7 +23660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -23687,7 +23681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -23710,7 +23704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -23733,7 +23727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -23750,7 +23744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23767,7 +23761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23811,9 +23805,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -23856,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -23891,7 +23885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -23928,7 +23922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
@@ -23967,7 +23961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -24008,7 +24002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -24049,7 +24043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -24090,7 +24084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="14" t="s">
         <v>26</v>
@@ -24127,7 +24121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
         <v>48</v>
@@ -24164,7 +24158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
@@ -24201,7 +24195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -24234,7 +24228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -24261,7 +24255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -24284,7 +24278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="17" t="s">
         <v>18</v>
@@ -24311,7 +24305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="17" t="s">
         <v>18</v>
@@ -24334,7 +24328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
@@ -24363,7 +24357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -24380,7 +24374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -24397,7 +24391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -24414,7 +24408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -24431,7 +24425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -24474,9 +24468,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="19" t="s">
@@ -24517,7 +24511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="19" t="s">
         <v>2</v>
@@ -24554,7 +24548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -24595,7 +24589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
@@ -24636,7 +24630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -24677,7 +24671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
@@ -24718,7 +24712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
@@ -24759,7 +24753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -24800,7 +24794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -24841,7 +24835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -24882,7 +24876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
@@ -24923,7 +24917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
@@ -24958,7 +24952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -24993,7 +24987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
@@ -25020,7 +25014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -25037,7 +25031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -25054,7 +25048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -25071,7 +25065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -25088,7 +25082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -25105,7 +25099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -25122,7 +25116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -25165,9 +25159,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -25208,7 +25202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -25249,7 +25243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
@@ -25290,7 +25284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -25331,7 +25325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -25372,7 +25366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -25413,7 +25407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
@@ -25444,7 +25438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -25467,7 +25461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -25490,7 +25484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -25513,7 +25507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="24" t="s">
         <v>19</v>
@@ -25544,7 +25538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
         <v>63</v>
@@ -25569,7 +25563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -25594,7 +25588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>15</v>
@@ -25619,7 +25613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>65</v>
       </c>
@@ -25646,7 +25640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
@@ -25673,7 +25667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>45</v>
       </c>
@@ -25700,7 +25694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>19</v>
       </c>
@@ -25727,7 +25721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -25744,7 +25738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -25761,7 +25755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -25804,9 +25798,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="16" t="s">
@@ -25847,7 +25841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="16" t="s">
@@ -25880,7 +25874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="16" t="s">
@@ -25911,7 +25905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -25942,7 +25936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -25975,7 +25969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -25998,7 +25992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -26021,7 +26015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -26044,7 +26038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -26069,7 +26063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -26098,7 +26092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20" t="s">
@@ -26131,7 +26125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -26154,7 +26148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -26177,7 +26171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -26200,7 +26194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -26223,7 +26217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -26246,7 +26240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -26263,7 +26257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -26280,7 +26274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -26297,7 +26291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -26314,7 +26308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -26358,9 +26352,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26397,7 +26391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
@@ -26430,7 +26424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
@@ -26463,7 +26457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
@@ -26496,7 +26490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
@@ -26529,7 +26523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -26558,7 +26552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -26583,7 +26577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -26610,7 +26604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -26639,7 +26633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -26668,7 +26662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -26695,7 +26689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -26718,7 +26712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -26743,7 +26737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -26764,7 +26758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="15" t="s">
@@ -26783,7 +26777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15" t="s">
@@ -26802,7 +26796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -26821,7 +26815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
@@ -26840,7 +26834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -26859,7 +26853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -26878,7 +26872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>

--- a/screens_layout/ScreensLayout.xlsx
+++ b/screens_layout/ScreensLayout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\Python\ScreensLayoutConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BrickSmash\screens_layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD2FF1F-C172-40E6-86A7-C967D2901AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB565083-21B4-43B9-A6D7-63CAE9B6F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level001" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="Level009" sheetId="14" r:id="rId9"/>
     <sheet name="Level010" sheetId="15" r:id="rId10"/>
     <sheet name="Level011" sheetId="17" r:id="rId11"/>
-    <sheet name="Level Template" sheetId="5" r:id="rId12"/>
+    <sheet name="Level012" sheetId="18" r:id="rId12"/>
+    <sheet name="Level Template" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="110">
   <si>
     <t>Packs:</t>
   </si>
@@ -331,6 +332,36 @@
   </si>
   <si>
     <t>c9sp4e</t>
+  </si>
+  <si>
+    <t>c1s2pe</t>
+  </si>
+  <si>
+    <t>c8s-1p2e</t>
+  </si>
+  <si>
+    <t>c1sp9e</t>
+  </si>
+  <si>
+    <t>c1s2p10e</t>
+  </si>
+  <si>
+    <t>c0sp10e</t>
+  </si>
+  <si>
+    <t>c1sp14e</t>
+  </si>
+  <si>
+    <t>c1sp17e</t>
+  </si>
+  <si>
+    <t>c1sp18e</t>
+  </si>
+  <si>
+    <t>c0sp18e</t>
+  </si>
+  <si>
+    <t>c6s4pe</t>
   </si>
 </sst>
 </file>
@@ -5433,6 +5464,1561 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7069974-7095-4233-A0E4-7EDC7466DB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="251460"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836697F2-5636-4687-8782-2949A59C084C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="2263140"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EB50CC-74AE-49C5-AD79-BE70531B2261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="0"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE450B2-7631-4E7A-98A7-CCAE0296B701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="502920"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE38418-65C2-4F7A-B68B-0D5B27E544A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="754380"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1318FE4-C59B-416E-9EB2-6D3F966A9FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="1005840"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FF69EB-374E-4D74-9D26-8E84E2AE7BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="1257300"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB62A7D-A541-4AFA-A2A0-440C4903DDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="1508760"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC42191-9B99-4A8F-B33C-AD7BE21B9FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="1760220"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D048A9-369D-4339-AF73-0839880EB106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="2011680"/>
+          <a:ext cx="640210" cy="254058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D179156-48A5-480C-BD76-748DACF51193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="7620"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B31514-EF52-4856-906A-4D38630DD852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="251460"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C7C713-9BA3-4CAC-8C3B-7496869DFF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="502920"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F07DCF-FA5A-4F79-9F1D-0688F926C08A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="754380"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A5C5F1-C031-4AFE-991C-CF732F8F9D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1005840"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA07808-B4B2-43A0-8844-CA79F1192211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1257300"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F9FF5B-CE5B-497C-AE98-67F70D8D80A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1508760"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2F1C31-A905-43B2-8377-A0C063A05F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1760220"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF85AD90-BDB7-4550-B7C4-CDC441E29BEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2011680"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32575BB7-3DA0-4B06-BD8B-3F3E6123AE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2263140"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C452DA-F820-4908-83C7-F582E2593C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2514600"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE2A08F-364E-4534-8630-A32EC9920B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2766060"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F70485-9CB8-457D-8DAB-32E4E9441560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="3017520"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89921A50-FCB0-41B0-B6A4-DB0CE397D617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="3268980"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491D5CFD-9DC2-4E86-A31A-6895EE1C9F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="3520440"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E4A196-BC12-4DB9-AECB-45C929A40A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="3771900"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC748D0-42DA-4170-AADC-759DBEF809D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="4023360"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0358DC09-2724-491B-AE23-38910D6C99C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="4274820"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97654AFB-7F49-4507-A5C4-E9AD86D53358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="4526280"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28993F3-B8B2-41D8-9A10-EB1CA3400453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="4777740"/>
+          <a:ext cx="244380" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC40C95-D7BF-4C64-AFDF-2CDBD088C08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10881360" y="2514600"/>
+          <a:ext cx="640080" cy="253968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>130</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -19704,9 +21290,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -19747,7 +21333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -19778,7 +21364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -19813,7 +21399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -19852,7 +21438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -19893,7 +21479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -19934,7 +21520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -19973,7 +21559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
@@ -20008,7 +21594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -20039,7 +21625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
@@ -20072,7 +21658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -20095,7 +21681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -20112,7 +21698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -20129,7 +21715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -20146,7 +21732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -20163,7 +21749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -20180,7 +21766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20197,7 +21783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20214,7 +21800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20231,7 +21817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -20248,7 +21834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20292,9 +21878,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -20339,7 +21925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -20368,7 +21954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -20397,7 +21983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
@@ -20432,7 +22018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -20455,7 +22041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -20478,7 +22064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -20501,7 +22087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -20524,7 +22110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -20551,7 +22137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>2</v>
@@ -20586,7 +22172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="19" t="s">
         <v>2</v>
@@ -20621,7 +22207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
@@ -20652,7 +22238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="19" t="s">
         <v>11</v>
@@ -20683,7 +22269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="19" t="s">
         <v>2</v>
@@ -20714,7 +22300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="19" t="s">
@@ -20741,7 +22327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="19" t="s">
@@ -20768,7 +22354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -20791,7 +22377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -20814,7 +22400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -20833,7 +22419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
@@ -20850,7 +22436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20893,9 +22479,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="23" t="s">
@@ -20930,7 +22516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -20969,7 +22555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -21010,7 +22596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
@@ -21051,7 +22637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>98</v>
       </c>
@@ -21092,7 +22678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
@@ -21133,7 +22719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
@@ -21174,7 +22760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
@@ -21215,7 +22801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>87</v>
       </c>
@@ -21256,7 +22842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
@@ -21297,7 +22883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
@@ -21338,7 +22924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -21373,7 +22959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -21404,7 +22990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="23" t="s">
@@ -21431,7 +23017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -21454,7 +23040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -21473,7 +23059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -21490,7 +23076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -21507,7 +23093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21524,7 +23110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -21541,7 +23127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -21577,16 +23163,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A8E8E2-5591-4723-BEA0-FC4389F33B69}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21617,7 +23203,623 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="M8" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="M10" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="M13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="M14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="M15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="M16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="M17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="M18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="M20" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11">
+        <v>0</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -21640,7 +23842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -21663,7 +23865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -21686,7 +23888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -21709,7 +23911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -21732,7 +23934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -21755,7 +23957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -21778,7 +23980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -21801,7 +24003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -21824,7 +24026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -21847,7 +24049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -21864,7 +24066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -21881,7 +24083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -21898,7 +24100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -21915,7 +24117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -21932,7 +24134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -21949,7 +24151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -21966,7 +24168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -21983,7 +24185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22000,7 +24202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22043,9 +24245,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22082,7 +24284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="20" t="s">
@@ -22113,7 +24315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -22144,7 +24346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>15</v>
@@ -22177,7 +24379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -22208,7 +24410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="20" t="s">
@@ -22239,7 +24441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -22272,7 +24474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -22309,7 +24511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="19" t="s">
@@ -22340,7 +24542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>7</v>
@@ -22377,7 +24579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -22400,7 +24602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -22417,7 +24619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -22434,7 +24636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -22451,7 +24653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -22468,7 +24670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -22485,7 +24687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -22502,7 +24704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -22519,7 +24721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -22536,7 +24738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22553,7 +24755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -22596,9 +24798,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22629,7 +24831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="18" t="s">
@@ -22656,7 +24858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="18" t="s">
         <v>5</v>
@@ -22687,7 +24889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -22722,7 +24924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -22757,7 +24959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="18" t="s">
         <v>30</v>
@@ -22788,7 +24990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="18" t="s">
@@ -22815,7 +25017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -22838,7 +25040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -22861,7 +25063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -22884,7 +25086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -22907,7 +25109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -22926,7 +25128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -22947,7 +25149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -22970,7 +25172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
@@ -22995,7 +25197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
@@ -23022,7 +25224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
@@ -23051,7 +25253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
@@ -23082,7 +25284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -23115,7 +25317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23132,7 +25334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23175,9 +25377,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="20" t="s">
@@ -23216,7 +25418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="20" t="s">
         <v>15</v>
@@ -23251,7 +25453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -23288,7 +25490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>42</v>
@@ -23325,7 +25527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="24" t="s">
@@ -23358,7 +25560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="24" t="s">
@@ -23391,7 +25593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="20" t="s">
         <v>15</v>
@@ -23428,7 +25630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="20" t="s">
         <v>15</v>
@@ -23465,7 +25667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -23504,7 +25706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -23539,7 +25741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -23568,7 +25770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="15" t="s">
         <v>39</v>
@@ -23589,7 +25791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -23614,7 +25816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -23637,7 +25839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -23660,7 +25862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -23681,7 +25883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -23704,7 +25906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -23727,7 +25929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -23744,7 +25946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23761,7 +25963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23805,9 +26007,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -23850,7 +26052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -23885,7 +26087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
@@ -23922,7 +26124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
@@ -23961,7 +26163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -24002,7 +26204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -24043,7 +26245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -24084,7 +26286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="14" t="s">
         <v>26</v>
@@ -24121,7 +26323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
         <v>48</v>
@@ -24158,7 +26360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
         <v>26</v>
@@ -24195,7 +26397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
@@ -24228,7 +26430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
@@ -24255,7 +26457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -24278,7 +26480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="17" t="s">
         <v>18</v>
@@ -24305,7 +26507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="17" t="s">
         <v>18</v>
@@ -24328,7 +26530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
@@ -24357,7 +26559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -24374,7 +26576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -24391,7 +26593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -24408,7 +26610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -24425,7 +26627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -24468,9 +26670,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="19" t="s">
@@ -24511,7 +26713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="19" t="s">
         <v>2</v>
@@ -24548,7 +26750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -24589,7 +26791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
@@ -24630,7 +26832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -24671,7 +26873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
@@ -24712,7 +26914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
@@ -24753,7 +26955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
@@ -24794,7 +26996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -24835,7 +27037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -24876,7 +27078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
@@ -24917,7 +27119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
@@ -24952,7 +27154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -24987,7 +27189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
@@ -25014,7 +27216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -25031,7 +27233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -25048,7 +27250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -25065,7 +27267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -25082,7 +27284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -25099,7 +27301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -25116,7 +27318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -25159,9 +27361,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -25202,7 +27404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -25243,7 +27445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
@@ -25284,7 +27486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -25325,7 +27527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -25366,7 +27568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -25407,7 +27609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
         <v>67</v>
@@ -25438,7 +27640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -25461,7 +27663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -25484,7 +27686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -25507,7 +27709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="24" t="s">
         <v>19</v>
@@ -25538,7 +27740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
         <v>63</v>
@@ -25563,7 +27765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
@@ -25588,7 +27790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>15</v>
@@ -25613,7 +27815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>65</v>
       </c>
@@ -25640,7 +27842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
@@ -25667,7 +27869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>45</v>
       </c>
@@ -25694,7 +27896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>19</v>
       </c>
@@ -25721,7 +27923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -25738,7 +27940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -25755,7 +27957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -25798,9 +28000,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="16" t="s">
@@ -25841,7 +28043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="16" t="s">
@@ -25874,7 +28076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="16" t="s">
@@ -25905,7 +28107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="14" t="s">
@@ -25936,7 +28138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="14" t="s">
@@ -25969,7 +28171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -25992,7 +28194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -26015,7 +28217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -26038,7 +28240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -26063,7 +28265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -26092,7 +28294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="20" t="s">
@@ -26125,7 +28327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -26148,7 +28350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -26171,7 +28373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -26194,7 +28396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -26217,7 +28419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -26240,7 +28442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -26257,7 +28459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -26274,7 +28476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -26291,7 +28493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -26308,7 +28510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -26352,9 +28554,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26391,7 +28593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
@@ -26424,7 +28626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
@@ -26457,7 +28659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
@@ -26490,7 +28692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
@@ -26523,7 +28725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -26552,7 +28754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -26577,7 +28779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -26604,7 +28806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -26633,7 +28835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -26662,7 +28864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -26689,7 +28891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -26712,7 +28914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -26737,7 +28939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -26758,7 +28960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="15" t="s">
@@ -26777,7 +28979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15" t="s">
@@ -26796,7 +28998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="15" t="s">
         <v>3</v>
@@ -26815,7 +29017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="15" t="s">
         <v>3</v>
@@ -26834,7 +29036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
@@ -26853,7 +29055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -26872,7 +29074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
